--- a/docs/Progress report.xlsx
+++ b/docs/Progress report.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\maze-project-2021\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693026F8-5021-4B6F-8B52-E098CBC7421C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EFF3C8-2CA7-459A-96D5-16EEBDFEFD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6735" yWindow="3390" windowWidth="20235" windowHeight="11505" xr2:uid="{8A6A7E8B-D360-4DEB-97D5-E55CDCDA4E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>PROGRESS REPORT</t>
   </si>
@@ -138,6 +137,9 @@
   </si>
   <si>
     <t>9.11.2023</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
 </sst>
 </file>
@@ -150,14 +152,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,8 +168,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +197,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -304,11 +313,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -321,9 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -333,60 +338,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -709,221 +715,221 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1138,22 +1144,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB70D4E-BA07-4674-9200-90E2B4100DCF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>